--- a/data/pca/factorExposure/factorExposure_2010-02-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-02.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.006564409687069017</v>
+        <v>0.01725485070216284</v>
       </c>
       <c r="C2">
-        <v>-0.01691397391483328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001060228602628745</v>
+      </c>
+      <c r="D2">
+        <v>0.006834970941536263</v>
+      </c>
+      <c r="E2">
+        <v>-0.0005986453166361239</v>
+      </c>
+      <c r="F2">
+        <v>0.009170724276340636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03270398160115144</v>
+        <v>0.09419385467699097</v>
       </c>
       <c r="C4">
-        <v>-0.1240019529446629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.015876147461632</v>
+      </c>
+      <c r="D4">
+        <v>0.08263815381342154</v>
+      </c>
+      <c r="E4">
+        <v>-0.0276213203258656</v>
+      </c>
+      <c r="F4">
+        <v>-0.03079875022031473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04394440818490711</v>
+        <v>0.1565281672932074</v>
       </c>
       <c r="C6">
-        <v>-0.1045705522854417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02515439052081175</v>
+      </c>
+      <c r="D6">
+        <v>-0.02360388000500947</v>
+      </c>
+      <c r="E6">
+        <v>-0.009253064866838493</v>
+      </c>
+      <c r="F6">
+        <v>-0.0467269288478094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.009791379890675722</v>
+        <v>0.06038732515481509</v>
       </c>
       <c r="C7">
-        <v>-0.07493101817610329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0007430617546458477</v>
+      </c>
+      <c r="D7">
+        <v>0.05116348775219754</v>
+      </c>
+      <c r="E7">
+        <v>-0.01112957765833588</v>
+      </c>
+      <c r="F7">
+        <v>-0.04220482153519917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.005638246519578566</v>
+        <v>0.05856264332944112</v>
       </c>
       <c r="C8">
-        <v>-0.05630167658068352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01328743816115411</v>
+      </c>
+      <c r="D8">
+        <v>0.03161225142785946</v>
+      </c>
+      <c r="E8">
+        <v>-0.01664528898778468</v>
+      </c>
+      <c r="F8">
+        <v>0.02732955725637599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02830852666703399</v>
+        <v>0.07173007854361699</v>
       </c>
       <c r="C9">
-        <v>-0.09696987755641705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01176306855725423</v>
+      </c>
+      <c r="D9">
+        <v>0.08458418399873821</v>
+      </c>
+      <c r="E9">
+        <v>-0.02233679507731394</v>
+      </c>
+      <c r="F9">
+        <v>-0.04660187820185036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.006934927891364029</v>
+        <v>0.09463525919266584</v>
       </c>
       <c r="C10">
-        <v>-0.03449137095912633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01845863888379084</v>
+      </c>
+      <c r="D10">
+        <v>-0.170647254574766</v>
+      </c>
+      <c r="E10">
+        <v>0.03888985572013535</v>
+      </c>
+      <c r="F10">
+        <v>0.05695102389223843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03109318598656128</v>
+        <v>0.08800167044505611</v>
       </c>
       <c r="C11">
-        <v>-0.1072086815994682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01134407150082136</v>
+      </c>
+      <c r="D11">
+        <v>0.1169037425571922</v>
+      </c>
+      <c r="E11">
+        <v>-0.04664763516085089</v>
+      </c>
+      <c r="F11">
+        <v>-0.01983743797386173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02793460927439979</v>
+        <v>0.09236805677361823</v>
       </c>
       <c r="C12">
-        <v>-0.1142590733599708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.00880318404906006</v>
+      </c>
+      <c r="D12">
+        <v>0.1293994130866211</v>
+      </c>
+      <c r="E12">
+        <v>-0.04731369114039941</v>
+      </c>
+      <c r="F12">
+        <v>-0.0229489472479039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.008251214620358204</v>
+        <v>0.04298873049292722</v>
       </c>
       <c r="C13">
-        <v>-0.03858700738743046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.004067439337471486</v>
+      </c>
+      <c r="D13">
+        <v>0.04846124800059616</v>
+      </c>
+      <c r="E13">
+        <v>0.01152050474897084</v>
+      </c>
+      <c r="F13">
+        <v>-0.002815374472587366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0151935658114659</v>
+        <v>0.02233512791090476</v>
       </c>
       <c r="C14">
-        <v>-0.02589304261998454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01414067357409761</v>
+      </c>
+      <c r="D14">
+        <v>0.03344462010045602</v>
+      </c>
+      <c r="E14">
+        <v>-0.01694245289260484</v>
+      </c>
+      <c r="F14">
+        <v>-0.01342890567202347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01195587224344897</v>
+        <v>0.03139175762420802</v>
       </c>
       <c r="C15">
-        <v>-0.02728793424490394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005263581359803999</v>
+      </c>
+      <c r="D15">
+        <v>0.04473660062419208</v>
+      </c>
+      <c r="E15">
+        <v>-0.006887078209679215</v>
+      </c>
+      <c r="F15">
+        <v>-0.02187964516373062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01924522128806345</v>
+        <v>0.07328658149311054</v>
       </c>
       <c r="C16">
-        <v>-0.1141053588069726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002295312389391229</v>
+      </c>
+      <c r="D16">
+        <v>0.126548907543573</v>
+      </c>
+      <c r="E16">
+        <v>-0.06244927639853487</v>
+      </c>
+      <c r="F16">
+        <v>-0.02316094783415016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02668208124584233</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003451632931545352</v>
+      </c>
+      <c r="D18">
+        <v>0.02055766267896187</v>
+      </c>
+      <c r="E18">
+        <v>0.00544939776971235</v>
+      </c>
+      <c r="F18">
+        <v>0.009326610160327141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01430002168186805</v>
+        <v>0.0599765026314659</v>
       </c>
       <c r="C20">
-        <v>-0.06622585399311504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0006238724269963621</v>
+      </c>
+      <c r="D20">
+        <v>0.07709819009590897</v>
+      </c>
+      <c r="E20">
+        <v>-0.0555657788694663</v>
+      </c>
+      <c r="F20">
+        <v>-0.02087161832889277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01113483626834642</v>
+        <v>0.03898123112080154</v>
       </c>
       <c r="C21">
-        <v>-0.02351207723197362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006598555651289553</v>
+      </c>
+      <c r="D21">
+        <v>0.03681413428237645</v>
+      </c>
+      <c r="E21">
+        <v>0.006097750808836102</v>
+      </c>
+      <c r="F21">
+        <v>0.0269671710415912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.002434146116428276</v>
+        <v>0.04517834326318647</v>
       </c>
       <c r="C22">
-        <v>-0.0358505479563072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0007899903669233468</v>
+      </c>
+      <c r="D22">
+        <v>0.00269638771070372</v>
+      </c>
+      <c r="E22">
+        <v>-0.02882910184221753</v>
+      </c>
+      <c r="F22">
+        <v>0.03156578130970034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.00244869942158671</v>
+        <v>0.04518527858706236</v>
       </c>
       <c r="C23">
-        <v>-0.03588710412017135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0008057337601644578</v>
+      </c>
+      <c r="D23">
+        <v>0.00283274006692207</v>
+      </c>
+      <c r="E23">
+        <v>-0.02914524151738743</v>
+      </c>
+      <c r="F23">
+        <v>0.03109121675943145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02066890699503507</v>
+        <v>0.0797519938797413</v>
       </c>
       <c r="C24">
-        <v>-0.1116130521485939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002968524068656092</v>
+      </c>
+      <c r="D24">
+        <v>0.1205057134212271</v>
+      </c>
+      <c r="E24">
+        <v>-0.05054494929484243</v>
+      </c>
+      <c r="F24">
+        <v>-0.02339635948890809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02551893075641656</v>
+        <v>0.08515470284267107</v>
       </c>
       <c r="C25">
-        <v>-0.1179369190496141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.00514813730681639</v>
+      </c>
+      <c r="D25">
+        <v>0.1094971449209602</v>
+      </c>
+      <c r="E25">
+        <v>-0.033025519844707</v>
+      </c>
+      <c r="F25">
+        <v>-0.02511092540234185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02374706007207183</v>
+        <v>0.0560430234830161</v>
       </c>
       <c r="C26">
-        <v>-0.04768903769857846</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01459431482937864</v>
+      </c>
+      <c r="D26">
+        <v>0.04170969337201005</v>
+      </c>
+      <c r="E26">
+        <v>-0.02720388857520481</v>
+      </c>
+      <c r="F26">
+        <v>0.01179208078110038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.006632274896013237</v>
+        <v>0.141676351328356</v>
       </c>
       <c r="C28">
-        <v>-0.0229940349523113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01776083894203983</v>
+      </c>
+      <c r="D28">
+        <v>-0.2640073391901874</v>
+      </c>
+      <c r="E28">
+        <v>0.07042116813369881</v>
+      </c>
+      <c r="F28">
+        <v>-0.007228071355726257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01554767525246744</v>
+        <v>0.02670176775645376</v>
       </c>
       <c r="C29">
-        <v>-0.02967434546300144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.00824460015680905</v>
+      </c>
+      <c r="D29">
+        <v>0.03304103799432984</v>
+      </c>
+      <c r="E29">
+        <v>-0.01099589538907439</v>
+      </c>
+      <c r="F29">
+        <v>0.01153217537631637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.02138667299674387</v>
+        <v>0.06163211675191781</v>
       </c>
       <c r="C30">
-        <v>-0.1249298914174209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004559299982985881</v>
+      </c>
+      <c r="D30">
+        <v>0.08668975701172547</v>
+      </c>
+      <c r="E30">
+        <v>-0.02069444480124547</v>
+      </c>
+      <c r="F30">
+        <v>-0.08074247808390098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02482939306660444</v>
+        <v>0.04934906989526099</v>
       </c>
       <c r="C31">
-        <v>-0.03438638607807086</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01524436969815505</v>
+      </c>
+      <c r="D31">
+        <v>0.02525349796920589</v>
+      </c>
+      <c r="E31">
+        <v>-0.02731036816702435</v>
+      </c>
+      <c r="F31">
+        <v>0.003267760624876107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01072845989317234</v>
+        <v>0.04933246801735643</v>
       </c>
       <c r="C32">
-        <v>-0.06115257422507205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001162270115864385</v>
+      </c>
+      <c r="D32">
+        <v>0.03634055737720732</v>
+      </c>
+      <c r="E32">
+        <v>-0.03066086054794447</v>
+      </c>
+      <c r="F32">
+        <v>-0.0007022730172210524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02680510804970963</v>
+        <v>0.08972792151638141</v>
       </c>
       <c r="C33">
-        <v>-0.1163177204672262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008522017889933538</v>
+      </c>
+      <c r="D33">
+        <v>0.09820019790476599</v>
+      </c>
+      <c r="E33">
+        <v>-0.0453496479751402</v>
+      </c>
+      <c r="F33">
+        <v>-0.03311744354832406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.03036505195504243</v>
+        <v>0.0682136147847528</v>
       </c>
       <c r="C34">
-        <v>-0.09637773185984563</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01168217760002634</v>
+      </c>
+      <c r="D34">
+        <v>0.1059392492791368</v>
+      </c>
+      <c r="E34">
+        <v>-0.03473308970902306</v>
+      </c>
+      <c r="F34">
+        <v>-0.03214478794595097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003216018220191826</v>
+        <v>0.02438049789186995</v>
       </c>
       <c r="C35">
-        <v>-0.01487054890599799</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002403518534971296</v>
+      </c>
+      <c r="D35">
+        <v>0.01261818095013085</v>
+      </c>
+      <c r="E35">
+        <v>-0.01152518912962476</v>
+      </c>
+      <c r="F35">
+        <v>-0.0009511572654992316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01187841358595491</v>
+        <v>0.02530309673665442</v>
       </c>
       <c r="C36">
-        <v>-0.02890898060635804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007372952660537005</v>
+      </c>
+      <c r="D36">
+        <v>0.03977294957651049</v>
+      </c>
+      <c r="E36">
+        <v>-0.01568550488780576</v>
+      </c>
+      <c r="F36">
+        <v>-0.0139160916047786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0008508677273215539</v>
+        <v>0.001582666712528243</v>
       </c>
       <c r="C38">
-        <v>-0.005583070386895507</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0002516494615480239</v>
+      </c>
+      <c r="D38">
+        <v>0.0004928939435437723</v>
+      </c>
+      <c r="E38">
+        <v>-0.001037415659998655</v>
+      </c>
+      <c r="F38">
+        <v>0.0006389176349955984</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04467841838603287</v>
+        <v>0.1070506066626983</v>
       </c>
       <c r="C39">
-        <v>-0.1717418195171938</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01682268898660434</v>
+      </c>
+      <c r="D39">
+        <v>0.1533990696133039</v>
+      </c>
+      <c r="E39">
+        <v>-0.05906064434837764</v>
+      </c>
+      <c r="F39">
+        <v>-0.02823153364115757</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009752759173101564</v>
+        <v>0.03932870182496195</v>
       </c>
       <c r="C40">
-        <v>-0.01403093115042456</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007480984397231538</v>
+      </c>
+      <c r="D40">
+        <v>0.0320483659502698</v>
+      </c>
+      <c r="E40">
+        <v>-0.002867265176792263</v>
+      </c>
+      <c r="F40">
+        <v>0.01752222521905554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0142031928986492</v>
+        <v>0.02659806050188736</v>
       </c>
       <c r="C41">
-        <v>-0.02129540391457355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006617446149065269</v>
+      </c>
+      <c r="D41">
+        <v>0.01148397674704544</v>
+      </c>
+      <c r="E41">
+        <v>-0.01277430811426067</v>
+      </c>
+      <c r="F41">
+        <v>0.006470583186972228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01258005672352554</v>
+        <v>0.04009229831770327</v>
       </c>
       <c r="C43">
-        <v>-0.0257794531389137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006774029176651604</v>
+      </c>
+      <c r="D43">
+        <v>0.02070209138845891</v>
+      </c>
+      <c r="E43">
+        <v>-0.02440147578185034</v>
+      </c>
+      <c r="F43">
+        <v>0.01169723799083052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03544345182119451</v>
+        <v>0.07703536311617815</v>
       </c>
       <c r="C44">
-        <v>-0.1331353337457452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0211544447980524</v>
+      </c>
+      <c r="D44">
+        <v>0.09752408027652049</v>
+      </c>
+      <c r="E44">
+        <v>-0.06661622334789963</v>
+      </c>
+      <c r="F44">
+        <v>-0.1499998786077482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.004737934406013253</v>
+        <v>0.02399257278675635</v>
       </c>
       <c r="C46">
-        <v>-0.01137753997493443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003804792841839838</v>
+      </c>
+      <c r="D46">
+        <v>0.01236619501975092</v>
+      </c>
+      <c r="E46">
+        <v>-0.02208226951568888</v>
+      </c>
+      <c r="F46">
+        <v>0.003664551886080818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01561206029908013</v>
+        <v>0.05079123374215425</v>
       </c>
       <c r="C47">
-        <v>-0.04177706774159975</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003493009933089127</v>
+      </c>
+      <c r="D47">
+        <v>0.01305036002711322</v>
+      </c>
+      <c r="E47">
+        <v>-0.0230685402656036</v>
+      </c>
+      <c r="F47">
+        <v>0.03376374898711319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01433606045598767</v>
+        <v>0.04829613443869475</v>
       </c>
       <c r="C48">
-        <v>-0.04687015848299579</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002586384998141462</v>
+      </c>
+      <c r="D48">
+        <v>0.05096747369301562</v>
+      </c>
+      <c r="E48">
+        <v>0.005976489179719545</v>
+      </c>
+      <c r="F48">
+        <v>-0.008241351208381709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.04314168151933082</v>
+        <v>0.2025026531467165</v>
       </c>
       <c r="C49">
-        <v>-0.2028092060840091</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01847789783897923</v>
+      </c>
+      <c r="D49">
+        <v>-0.01319264051634702</v>
+      </c>
+      <c r="E49">
+        <v>-0.03017990162513465</v>
+      </c>
+      <c r="F49">
+        <v>-0.03652111942324865</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02039319298266319</v>
+        <v>0.04945755674646286</v>
       </c>
       <c r="C50">
-        <v>-0.04202795672112372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01125134902310002</v>
+      </c>
+      <c r="D50">
+        <v>0.02454501443134946</v>
+      </c>
+      <c r="E50">
+        <v>-0.0292532063085801</v>
+      </c>
+      <c r="F50">
+        <v>-0.007410716934834762</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0009820142438625675</v>
+        <v>0.001891138136394429</v>
       </c>
       <c r="C51">
-        <v>-0.005800846049015491</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.000502394945935552</v>
+      </c>
+      <c r="D51">
+        <v>-0.001983782861883112</v>
+      </c>
+      <c r="E51">
+        <v>0.0001879513953766025</v>
+      </c>
+      <c r="F51">
+        <v>-0.004031174044486426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03443009547041741</v>
+        <v>0.1457075239395481</v>
       </c>
       <c r="C52">
-        <v>-0.1429817056039953</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01478005716528873</v>
+      </c>
+      <c r="D52">
+        <v>0.04709454135032076</v>
+      </c>
+      <c r="E52">
+        <v>-0.0213006234745396</v>
+      </c>
+      <c r="F52">
+        <v>-0.04385732691071631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03410121542738823</v>
+        <v>0.1737710255625768</v>
       </c>
       <c r="C53">
-        <v>-0.1568911166108843</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01793962222931805</v>
+      </c>
+      <c r="D53">
+        <v>0.005747473790406177</v>
+      </c>
+      <c r="E53">
+        <v>-0.03105650004822505</v>
+      </c>
+      <c r="F53">
+        <v>-0.07474698738624186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01417064319287884</v>
+        <v>0.02175914080739617</v>
       </c>
       <c r="C54">
-        <v>-0.04812395851095384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01248622328314651</v>
+      </c>
+      <c r="D54">
+        <v>0.03358589857285657</v>
+      </c>
+      <c r="E54">
+        <v>-0.01625757011636765</v>
+      </c>
+      <c r="F54">
+        <v>0.0025370934611403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02619636431464039</v>
+        <v>0.114130583885132</v>
       </c>
       <c r="C55">
-        <v>-0.08876276144354843</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01615833091132649</v>
+      </c>
+      <c r="D55">
+        <v>0.009877106144711035</v>
+      </c>
+      <c r="E55">
+        <v>-0.02842821703526855</v>
+      </c>
+      <c r="F55">
+        <v>-0.04868522076814748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03748011628928984</v>
+        <v>0.1781498050997037</v>
       </c>
       <c r="C56">
-        <v>-0.1588110577314848</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01532249082345032</v>
+      </c>
+      <c r="D56">
+        <v>0.002609234368047127</v>
+      </c>
+      <c r="E56">
+        <v>-0.03767260253031798</v>
+      </c>
+      <c r="F56">
+        <v>-0.05506727304069424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01472058588121673</v>
+        <v>0.04648281453775906</v>
       </c>
       <c r="C58">
-        <v>-0.04451165609653742</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001247491343147128</v>
+      </c>
+      <c r="D58">
+        <v>0.06748753015762068</v>
+      </c>
+      <c r="E58">
+        <v>-0.0270900545848396</v>
+      </c>
+      <c r="F58">
+        <v>0.03886535853039935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01496657599632364</v>
+        <v>0.1704783132721236</v>
       </c>
       <c r="C59">
-        <v>-0.08391368954367617</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01843497736375909</v>
+      </c>
+      <c r="D59">
+        <v>-0.2209079055604405</v>
+      </c>
+      <c r="E59">
+        <v>0.04659493399828896</v>
+      </c>
+      <c r="F59">
+        <v>0.03148503167792504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.03951012648487905</v>
+        <v>0.234257543369938</v>
       </c>
       <c r="C60">
-        <v>-0.2753887936388392</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.003260019866668534</v>
+      </c>
+      <c r="D60">
+        <v>0.04000362192380755</v>
+      </c>
+      <c r="E60">
+        <v>-0.01151599559036041</v>
+      </c>
+      <c r="F60">
+        <v>0.00210951700253891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03195796099459132</v>
+        <v>0.08281251782245865</v>
       </c>
       <c r="C61">
-        <v>-0.1290410414519262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01266218761605171</v>
+      </c>
+      <c r="D61">
+        <v>0.1166525378054249</v>
+      </c>
+      <c r="E61">
+        <v>-0.03974823035840606</v>
+      </c>
+      <c r="F61">
+        <v>-0.01233055296771299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.04067831118650485</v>
+        <v>0.1699671377508983</v>
       </c>
       <c r="C62">
-        <v>-0.1673065960630079</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.0189632702206139</v>
+      </c>
+      <c r="D62">
+        <v>0.008610963709196177</v>
+      </c>
+      <c r="E62">
+        <v>-0.03536485023220232</v>
+      </c>
+      <c r="F62">
+        <v>-0.03746863128643027</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01321045110480183</v>
+        <v>0.04306317832873292</v>
       </c>
       <c r="C63">
-        <v>-0.0561907343563117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002469703377792322</v>
+      </c>
+      <c r="D63">
+        <v>0.05787480044614388</v>
+      </c>
+      <c r="E63">
+        <v>-0.02055381699548804</v>
+      </c>
+      <c r="F63">
+        <v>-0.004196281377915867</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0255273724110177</v>
+        <v>0.1104641573651434</v>
       </c>
       <c r="C64">
-        <v>-0.0999744599257899</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01171442054716068</v>
+      </c>
+      <c r="D64">
+        <v>0.04163588255447107</v>
+      </c>
+      <c r="E64">
+        <v>-0.02115925139149715</v>
+      </c>
+      <c r="F64">
+        <v>-0.02633594405392617</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04556775117859405</v>
+        <v>0.1471354027824457</v>
       </c>
       <c r="C65">
-        <v>-0.1036195719802201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03184117746115422</v>
+      </c>
+      <c r="D65">
+        <v>-0.04230704803777781</v>
+      </c>
+      <c r="E65">
+        <v>-0.000306333348882435</v>
+      </c>
+      <c r="F65">
+        <v>-0.03805744371391841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04411820377937448</v>
+        <v>0.1278752461298067</v>
       </c>
       <c r="C66">
-        <v>-0.2037452348738999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01482122128552649</v>
+      </c>
+      <c r="D66">
+        <v>0.141697682468849</v>
+      </c>
+      <c r="E66">
+        <v>-0.06694963145810688</v>
+      </c>
+      <c r="F66">
+        <v>-0.03101281460313731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01615171812814913</v>
+        <v>0.06323916853465016</v>
       </c>
       <c r="C67">
-        <v>-0.06902173289021796</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003139631489850779</v>
+      </c>
+      <c r="D67">
+        <v>0.05569005535959899</v>
+      </c>
+      <c r="E67">
+        <v>-0.01809539315237757</v>
+      </c>
+      <c r="F67">
+        <v>0.0317277458121801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01724002505030477</v>
+        <v>0.1163985179662257</v>
       </c>
       <c r="C68">
-        <v>-0.02273745304301547</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02767356802258726</v>
+      </c>
+      <c r="D68">
+        <v>-0.2594118552559172</v>
+      </c>
+      <c r="E68">
+        <v>0.08739896822979602</v>
+      </c>
+      <c r="F68">
+        <v>-0.004284619328807861</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.009512894263114522</v>
+        <v>0.03919523912349294</v>
       </c>
       <c r="C69">
-        <v>-0.03290508046706766</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.001130924826716714</v>
+      </c>
+      <c r="D69">
+        <v>0.007886921602366167</v>
+      </c>
+      <c r="E69">
+        <v>-0.0235458150369491</v>
+      </c>
+      <c r="F69">
+        <v>0.001005492052665456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0002472007094548195</v>
+        <v>0.06246648478878206</v>
       </c>
       <c r="C70">
-        <v>-0.03470586283317575</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0286949748897221</v>
+      </c>
+      <c r="D70">
+        <v>0.02934164953846259</v>
+      </c>
+      <c r="E70">
+        <v>0.0422676977542298</v>
+      </c>
+      <c r="F70">
+        <v>0.1872327981579031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02146984636423757</v>
+        <v>0.1355046040160816</v>
       </c>
       <c r="C71">
-        <v>-0.02764767226712805</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03250246668098069</v>
+      </c>
+      <c r="D71">
+        <v>-0.273293173476049</v>
+      </c>
+      <c r="E71">
+        <v>0.09684367444952106</v>
+      </c>
+      <c r="F71">
+        <v>-0.01076430767762977</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03859132374274143</v>
+        <v>0.1412550778410578</v>
       </c>
       <c r="C72">
-        <v>-0.1168115549165822</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02558839588859588</v>
+      </c>
+      <c r="D72">
+        <v>0.0004971570715097476</v>
+      </c>
+      <c r="E72">
+        <v>-0.03978633043757638</v>
+      </c>
+      <c r="F72">
+        <v>-0.03575708606216757</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.04276024620403227</v>
+        <v>0.201157069095056</v>
       </c>
       <c r="C73">
-        <v>-0.2056771566963262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01254361021247768</v>
+      </c>
+      <c r="D73">
+        <v>0.01421198889439988</v>
+      </c>
+      <c r="E73">
+        <v>-0.06411459541985438</v>
+      </c>
+      <c r="F73">
+        <v>-0.03870070335273473</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02456793589015131</v>
+        <v>0.09485340058294656</v>
       </c>
       <c r="C74">
-        <v>-0.1164272437717559</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.0128630809811494</v>
+      </c>
+      <c r="D74">
+        <v>0.01826137545245014</v>
+      </c>
+      <c r="E74">
+        <v>-0.0455071734359384</v>
+      </c>
+      <c r="F74">
+        <v>-0.05731480734414431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04703474576015682</v>
+        <v>0.1289973551884878</v>
       </c>
       <c r="C75">
-        <v>-0.1338524490043215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02734597142328242</v>
+      </c>
+      <c r="D75">
+        <v>0.03060044469614374</v>
+      </c>
+      <c r="E75">
+        <v>-0.05901418348177757</v>
+      </c>
+      <c r="F75">
+        <v>-0.02030654101862919</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0009200571139996454</v>
+        <v>0.001944114119849938</v>
       </c>
       <c r="C76">
-        <v>-0.00688816739068227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0005233062503884153</v>
+      </c>
+      <c r="D76">
+        <v>-0.001406504861023763</v>
+      </c>
+      <c r="E76">
+        <v>-0.0002148884156174053</v>
+      </c>
+      <c r="F76">
+        <v>-0.00301404387926587</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02499247008734911</v>
+        <v>0.08001791506657963</v>
       </c>
       <c r="C77">
-        <v>-0.1067873079546372</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008613880107956736</v>
+      </c>
+      <c r="D77">
+        <v>0.1192046931070798</v>
+      </c>
+      <c r="E77">
+        <v>-0.04326672101566938</v>
+      </c>
+      <c r="F77">
+        <v>-0.02796937543009289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.0605143299890483</v>
+        <v>0.1021952519666981</v>
       </c>
       <c r="C78">
-        <v>-0.1208723707209707</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03987069447932463</v>
+      </c>
+      <c r="D78">
+        <v>0.1162442586052472</v>
+      </c>
+      <c r="E78">
+        <v>-0.07900989900210284</v>
+      </c>
+      <c r="F78">
+        <v>-0.04904131446171585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.04096708009701693</v>
+        <v>0.1646220490813073</v>
       </c>
       <c r="C79">
-        <v>-0.1452199465563315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02145634751679135</v>
+      </c>
+      <c r="D79">
+        <v>0.01732412183283244</v>
+      </c>
+      <c r="E79">
+        <v>-0.04816889247496846</v>
+      </c>
+      <c r="F79">
+        <v>-0.01444732775430496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.005246793908198472</v>
+        <v>0.08109136938154558</v>
       </c>
       <c r="C80">
-        <v>-0.09556342809619327</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.000652324688845159</v>
+      </c>
+      <c r="D80">
+        <v>0.05694640263498123</v>
+      </c>
+      <c r="E80">
+        <v>-0.03688721011611136</v>
+      </c>
+      <c r="F80">
+        <v>0.02634235953564511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04668215044178251</v>
+        <v>0.1230702273353043</v>
       </c>
       <c r="C81">
-        <v>-0.1541660137763048</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03129506450340055</v>
+      </c>
+      <c r="D81">
+        <v>0.01604866158397386</v>
+      </c>
+      <c r="E81">
+        <v>-0.0589584546929179</v>
+      </c>
+      <c r="F81">
+        <v>-0.01877627918007893</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04022918915583263</v>
+        <v>0.1652195018063831</v>
       </c>
       <c r="C82">
-        <v>-0.1716699753659388</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02369569122248205</v>
+      </c>
+      <c r="D82">
+        <v>0.005415365275534914</v>
+      </c>
+      <c r="E82">
+        <v>-0.02907764165402739</v>
+      </c>
+      <c r="F82">
+        <v>-0.07985991799300905</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01713737009468357</v>
+        <v>0.06111777375637181</v>
       </c>
       <c r="C83">
-        <v>-0.0784254146762061</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003296016611897996</v>
+      </c>
+      <c r="D83">
+        <v>0.05004499826644142</v>
+      </c>
+      <c r="E83">
+        <v>-0.006169538044116421</v>
+      </c>
+      <c r="F83">
+        <v>0.03276635806595584</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02476221699804067</v>
+        <v>0.05867569072837297</v>
       </c>
       <c r="C84">
-        <v>-0.07657095895138305</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01105050232342795</v>
+      </c>
+      <c r="D84">
+        <v>0.06567623110048183</v>
+      </c>
+      <c r="E84">
+        <v>-0.00719846442641008</v>
+      </c>
+      <c r="F84">
+        <v>-0.007204091867795583</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.04050363547857899</v>
+        <v>0.1379978438783902</v>
       </c>
       <c r="C85">
-        <v>-0.1200107300033983</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02718364793132381</v>
+      </c>
+      <c r="D85">
+        <v>0.01115821292006018</v>
+      </c>
+      <c r="E85">
+        <v>-0.03915546689778787</v>
+      </c>
+      <c r="F85">
+        <v>-0.04780159957576505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.02008811341885762</v>
+        <v>0.09575423518101824</v>
       </c>
       <c r="C86">
-        <v>-0.1090660616675982</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.007069893415787654</v>
+      </c>
+      <c r="D86">
+        <v>0.04106249588209124</v>
+      </c>
+      <c r="E86">
+        <v>-0.2095836997356141</v>
+      </c>
+      <c r="F86">
+        <v>0.9093582448877686</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.0454587956170604</v>
+        <v>0.09583993154566697</v>
       </c>
       <c r="C87">
-        <v>-0.1089423559679155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02162333501255558</v>
+      </c>
+      <c r="D87">
+        <v>0.09250576423841282</v>
+      </c>
+      <c r="E87">
+        <v>0.05330562990892502</v>
+      </c>
+      <c r="F87">
+        <v>-0.05283329625733401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01503219395939846</v>
+        <v>0.06087781985302938</v>
       </c>
       <c r="C88">
-        <v>-0.05866197521691589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002563968581816756</v>
+      </c>
+      <c r="D88">
+        <v>0.05061027180519712</v>
+      </c>
+      <c r="E88">
+        <v>-0.02512451419464765</v>
+      </c>
+      <c r="F88">
+        <v>-0.01442431664530975</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.00256696882580208</v>
+        <v>0.1337431552509926</v>
       </c>
       <c r="C89">
-        <v>-0.05132132050650461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.009822183755736133</v>
+      </c>
+      <c r="D89">
+        <v>-0.250659543567976</v>
+      </c>
+      <c r="E89">
+        <v>0.08939243628368053</v>
+      </c>
+      <c r="F89">
+        <v>0.00553997855334595</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02123444377202045</v>
+        <v>0.1477726720006798</v>
       </c>
       <c r="C90">
-        <v>-0.03134200321570869</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02825298777212266</v>
+      </c>
+      <c r="D90">
+        <v>-0.2657714972699662</v>
+      </c>
+      <c r="E90">
+        <v>0.1109443445549125</v>
+      </c>
+      <c r="F90">
+        <v>0.003738766377709728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0241610065198592</v>
+        <v>0.1195659403627476</v>
       </c>
       <c r="C91">
-        <v>-0.0927817792888132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01781169387336238</v>
+      </c>
+      <c r="D91">
+        <v>-0.01101906524731954</v>
+      </c>
+      <c r="E91">
+        <v>-0.0569602806945147</v>
+      </c>
+      <c r="F91">
+        <v>0.001340348652233703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.002143405713229498</v>
+        <v>0.1473240077612318</v>
       </c>
       <c r="C92">
-        <v>-0.04939493865032025</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02032200857620208</v>
+      </c>
+      <c r="D92">
+        <v>-0.2908434262974883</v>
+      </c>
+      <c r="E92">
+        <v>0.1017833115948866</v>
+      </c>
+      <c r="F92">
+        <v>0.01570853394992643</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.0159990655304624</v>
+        <v>0.1508389392617</v>
       </c>
       <c r="C93">
-        <v>-0.03505106891054132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02434887507402037</v>
+      </c>
+      <c r="D93">
+        <v>-0.2659059277347048</v>
+      </c>
+      <c r="E93">
+        <v>0.07819727987791344</v>
+      </c>
+      <c r="F93">
+        <v>-0.003006488016705727</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04885624510706832</v>
+        <v>0.1321437608422937</v>
       </c>
       <c r="C94">
-        <v>-0.1582376434685828</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02437517413382091</v>
+      </c>
+      <c r="D94">
+        <v>0.04352549511548532</v>
+      </c>
+      <c r="E94">
+        <v>-0.0585643177281367</v>
+      </c>
+      <c r="F94">
+        <v>-0.03712049516644781</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.03943868873731355</v>
+        <v>0.1258376803476868</v>
       </c>
       <c r="C95">
-        <v>-0.134369793846108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004674624772822753</v>
+      </c>
+      <c r="D95">
+        <v>0.09248504549431923</v>
+      </c>
+      <c r="E95">
+        <v>-0.04800717015947824</v>
+      </c>
+      <c r="F95">
+        <v>0.01026308840170924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9686194398171366</v>
+        <v>0.1024037061954931</v>
       </c>
       <c r="C96">
-        <v>-0.2312037120533807</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9882827297888518</v>
+      </c>
+      <c r="D96">
+        <v>-0.0374419356879571</v>
+      </c>
+      <c r="E96">
+        <v>-0.05640896733677952</v>
+      </c>
+      <c r="F96">
+        <v>-0.04351495258719215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.01897730541843481</v>
+        <v>0.1906716761517854</v>
       </c>
       <c r="C97">
-        <v>-0.1687852794109643</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.009016616139729525</v>
+      </c>
+      <c r="D97">
+        <v>-0.01770657893371657</v>
+      </c>
+      <c r="E97">
+        <v>-0.01411126355609486</v>
+      </c>
+      <c r="F97">
+        <v>0.09488762758909169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.03414296674149416</v>
+        <v>0.2062734072130837</v>
       </c>
       <c r="C98">
-        <v>-0.1956964685296214</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.007345646892674586</v>
+      </c>
+      <c r="D98">
+        <v>0.006613914166072404</v>
+      </c>
+      <c r="E98">
+        <v>0.08804107187489031</v>
+      </c>
+      <c r="F98">
+        <v>0.0935770293344466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003373413284587513</v>
+        <v>0.0557479299439798</v>
       </c>
       <c r="C99">
-        <v>-0.05745877930443508</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004492857997535562</v>
+      </c>
+      <c r="D99">
+        <v>0.03839824159975675</v>
+      </c>
+      <c r="E99">
+        <v>-0.02355998691185235</v>
+      </c>
+      <c r="F99">
+        <v>-0.0002107653450118574</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.004491350372137192</v>
+        <v>0.1253356813170509</v>
       </c>
       <c r="C100">
-        <v>-0.1354006137968217</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05259995071041457</v>
+      </c>
+      <c r="D100">
+        <v>0.3494275783137738</v>
+      </c>
+      <c r="E100">
+        <v>0.8874870491943683</v>
+      </c>
+      <c r="F100">
+        <v>0.134864103300709</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01557929909946322</v>
+        <v>0.02662300962507822</v>
       </c>
       <c r="C101">
-        <v>-0.02963727985517387</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008251306088393683</v>
+      </c>
+      <c r="D101">
+        <v>0.03274916975539157</v>
+      </c>
+      <c r="E101">
+        <v>-0.01043629704455588</v>
+      </c>
+      <c r="F101">
+        <v>0.01277072302754078</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
